--- a/src/test/resources/testcases/api_tests.xlsx
+++ b/src/test/resources/testcases/api_tests.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <t>字段名</t>
   </si>
@@ -157,6 +157,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -181,6 +187,12 @@
     <t>guang-A;not_null</t>
   </si>
   <si>
+    <t>{"Type":null,"succeeded":true,"code":200,"message":"Success","data":{"IsCreateWallet":true,"IsEnableWallet":false,"AccessToken":"eyJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJVc2VySWQiOiI1MGQzMDlmNS01MThjLTRlZmMtYjlhMC1kNDg3NGJhNTY0MDYiLCJVc2VyTmFtZSI6Iuivt-ebuO</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>TC002</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>Unauthorized</t>
   </si>
   <si>
+    <t>{"Type":null,"succeeded":false,"code":400,"message":"账号密码错误，请重试！","data":null,"extras":null,"timestamp":1751009233}</t>
+  </si>
+  <si>
     <t>TC101</t>
   </si>
   <si>
@@ -223,6 +238,9 @@
     <t>userName</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>TC102</t>
   </si>
   <si>
@@ -304,31 +322,16 @@
     <t>查询订单详情</t>
   </si>
   <si>
-    <t>/meio/Order/GetformInfoList?data=7248a15d-f145-4fea-a6f2-146296ecb14f</t>
-  </si>
-  <si>
-    <t>data.MS_OrderDetails.SubOrderID</t>
-  </si>
-  <si>
-    <t>MO2025062500023-1</t>
-  </si>
-  <si>
-    <t>data.MS_OrderDetails.ProductNamee;data.MS_OrderDetails.SubOrderID</t>
-  </si>
-  <si>
-    <t>MO2025062500023-1;英国VAT注册+申报</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>/meio/Order/GetformInfoList?orderId=0002b7ed-6237-4686-bfbf-c1fdcd48773a</t>
+  </si>
+  <si>
+    <t>Authorization=Bearer ${login_token}</t>
+  </si>
+  <si>
+    <t>data.PaymentInfo.OrderID</t>
+  </si>
+  <si>
+    <t>0002b7ed-6237-4686-bfbf-c1fdcd48773a</t>
   </si>
 </sst>
 </file>
@@ -1288,9 +1291,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.625"/>
-    <col min="2" max="2" customWidth="true" width="36.25"/>
-    <col min="3" max="3" customWidth="true" width="29.625"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1456,7 +1459,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1464,22 +1467,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.375"/>
-    <col min="2" max="2" customWidth="true" width="16.875"/>
-    <col min="3" max="3" customWidth="true" width="6.375"/>
-    <col min="4" max="4" customWidth="true" width="7.375"/>
-    <col min="5" max="5" customWidth="true" width="32.625"/>
-    <col min="6" max="6" customWidth="true" width="8.5"/>
-    <col min="7" max="7" customWidth="true" width="44.625"/>
-    <col min="8" max="8" customWidth="true" width="16.375"/>
-    <col min="9" max="9" customWidth="true" width="16.625"/>
-    <col min="10" max="10" customWidth="true" width="15.25"/>
-    <col min="11" max="11" customWidth="true" width="26.625"/>
-    <col min="12" max="13" customWidth="true" width="16.625"/>
-    <col min="14" max="14" customWidth="true" width="11.625"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="44.625" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="26.625" customWidth="1"/>
+    <col min="12" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1522,13 +1525,19 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
@@ -1537,40 +1546,46 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
@@ -1579,25 +1594,31 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>401</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,7 +1630,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
@@ -1617,23 +1638,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.375"/>
-    <col min="2" max="2" customWidth="true" width="13.75"/>
-    <col min="3" max="3" customWidth="true" width="6.375"/>
-    <col min="4" max="4" customWidth="true" width="7.375"/>
-    <col min="5" max="5" customWidth="true" width="14.625"/>
-    <col min="6" max="6" customWidth="true" width="28.625"/>
-    <col min="7" max="7" customWidth="true" width="5.125"/>
-    <col min="8" max="8" customWidth="true" width="16.375"/>
-    <col min="9" max="9" customWidth="true" width="11.875"/>
-    <col min="10" max="10" customWidth="true" width="15.25"/>
-    <col min="11" max="11" customWidth="true" width="17.625"/>
-    <col min="12" max="12" customWidth="true" width="16.375"/>
-    <col min="13" max="13" customWidth="true" width="14.125"/>
-    <col min="14" max="14" customWidth="true" width="8.625"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1676,25 +1697,31 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
@@ -1707,51 +1734,63 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
         <v>404</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,7 +1802,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:N2"/>
@@ -1771,23 +1810,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.375"/>
-    <col min="2" max="2" customWidth="true" width="13.75"/>
-    <col min="3" max="3" customWidth="true" width="6.375"/>
-    <col min="4" max="4" customWidth="true" width="7.375"/>
-    <col min="5" max="5" customWidth="true" width="12.625"/>
-    <col min="6" max="6" customWidth="true" width="28.625"/>
-    <col min="7" max="7" customWidth="true" width="18.625"/>
-    <col min="8" max="8" customWidth="true" width="16.375"/>
-    <col min="9" max="9" customWidth="true" width="11.875"/>
-    <col min="10" max="10" customWidth="true" width="15.25"/>
-    <col min="11" max="11" customWidth="true" width="20.625"/>
-    <col min="12" max="12" customWidth="true" width="16.375"/>
-    <col min="13" max="13" customWidth="true" width="14.125"/>
-    <col min="14" max="14" customWidth="true" width="9.625"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1830,86 +1869,104 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2">
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
         <v>400</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1921,7 +1978,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -1929,23 +1986,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.375"/>
-    <col min="2" max="2" customWidth="true" width="13.75"/>
-    <col min="3" max="3" customWidth="true" width="6.375"/>
-    <col min="4" max="4" customWidth="true" width="7.375"/>
-    <col min="5" max="5" customWidth="true" width="16.375"/>
-    <col min="6" max="6" customWidth="true" width="28.625"/>
-    <col min="7" max="7" customWidth="true" width="5.125"/>
-    <col min="8" max="8" customWidth="true" width="16.375"/>
-    <col min="9" max="9" customWidth="true" width="11.875"/>
-    <col min="10" max="10" customWidth="true" width="15.25"/>
-    <col min="11" max="11" customWidth="true" width="13.0"/>
-    <col min="12" max="12" customWidth="true" width="16.375"/>
-    <col min="13" max="13" customWidth="true" width="14.125"/>
-    <col min="14" max="14" customWidth="true" width="8.5"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1988,74 +2045,92 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
         <v>404</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2067,28 +2142,28 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.375"/>
-    <col min="2" max="2" customWidth="true" width="13.75"/>
-    <col min="3" max="3" customWidth="true" width="6.375"/>
-    <col min="4" max="4" customWidth="true" width="7.375"/>
-    <col min="5" max="5" customWidth="true" width="14.625"/>
-    <col min="6" max="6" customWidth="true" width="28.625"/>
-    <col min="7" max="7" customWidth="true" width="5.125"/>
-    <col min="8" max="8" customWidth="true" width="16.375"/>
-    <col min="9" max="9" customWidth="true" width="11.875"/>
-    <col min="10" max="10" customWidth="true" width="17.625"/>
-    <col min="11" max="11" customWidth="true" width="34.75"/>
-    <col min="12" max="12" customWidth="true" width="19.125"/>
-    <col min="13" max="13" customWidth="true" width="14.125"/>
-    <col min="14" max="14" customWidth="true" width="8.625"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="34.75" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2134,56 +2209,40 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s" s="0">
+    </row>
+    <row r="2" ht="40.5" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" ht="81" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
         <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
